--- a/Bestelformulier.xlsx
+++ b/Bestelformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALA\ALA Site\ALA-Versnelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F57568F-B4AC-4B30-8752-D9B52DB90187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9074FE-1538-47F9-8202-7C380F2DFC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3571CD-4E07-41C2-8874-12AF6664D2CF}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -638,11 +638,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63E44C4-2CD0-48F8-A5D8-0D7C5E49DF05}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1130,7 @@
       <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1135,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
@@ -1168,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -1178,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -1188,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -1198,7 +1204,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="5">
+      <c r="D18" s="20">
         <v>4</v>
       </c>
     </row>
@@ -1210,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -1220,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -1230,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -1240,7 +1246,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
@@ -1272,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -1282,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -1292,7 +1298,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -1301,7 +1307,7 @@
       <c r="B28" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="20">
         <v>5</v>
       </c>
       <c r="D28" s="7"/>
@@ -1314,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
@@ -1324,7 +1330,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -1334,7 +1340,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="5">
+      <c r="D31" s="20">
         <v>24</v>
       </c>
     </row>
@@ -1346,7 +1352,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
@@ -1356,7 +1362,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
@@ -1365,7 +1371,7 @@
       <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,7 +1382,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
@@ -1385,7 +1391,7 @@
       <c r="B36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,7 +1401,7 @@
       <c r="B37" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="20">
         <v>3</v>
       </c>
       <c r="D37" s="7"/>
@@ -1408,7 +1414,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
@@ -1418,7 +1424,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
@@ -1427,7 +1433,7 @@
       <c r="B40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="5"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,7 +1443,7 @@
       <c r="B41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1447,7 +1453,7 @@
       <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="5"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1457,7 +1463,7 @@
       <c r="B43" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1468,7 +1474,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -1477,7 +1483,7 @@
       <c r="B45" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1487,7 +1493,7 @@
       <c r="B46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="20">
         <v>121</v>
       </c>
       <c r="D46" s="7"/>
@@ -1499,7 +1505,7 @@
       <c r="B47" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,7 +1515,7 @@
       <c r="B48" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1519,7 +1525,7 @@
       <c r="B49" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="7"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
@@ -1540,7 +1546,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -1549,7 +1555,7 @@
       <c r="B52" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1560,7 +1566,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
@@ -1570,7 +1576,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
@@ -1580,7 +1586,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
@@ -1590,7 +1596,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="5">
+      <c r="D56" s="20">
         <v>45</v>
       </c>
     </row>
@@ -1602,7 +1608,7 @@
         <v>46</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
@@ -1634,7 +1640,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="7"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
@@ -1643,7 +1649,7 @@
       <c r="B61" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1654,7 +1660,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
@@ -1664,7 +1670,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="7"/>
-      <c r="D63" s="5">
+      <c r="D63" s="20">
         <v>3</v>
       </c>
     </row>
@@ -1676,7 +1682,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="7"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
@@ -1686,7 +1692,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="7"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
@@ -1696,7 +1702,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="7"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
@@ -1705,7 +1711,7 @@
       <c r="B67" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,7 +1722,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="5">
+      <c r="D68" s="20">
         <v>34</v>
       </c>
     </row>
@@ -1728,7 +1734,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="7"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
@@ -1737,7 +1743,7 @@
       <c r="B70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,7 +1753,7 @@
       <c r="B71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="5"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1758,7 +1764,7 @@
         <v>59</v>
       </c>
       <c r="C72" s="7"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
@@ -1768,7 +1774,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="7"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
@@ -1777,7 +1783,7 @@
       <c r="B74" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="5"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1787,7 +1793,7 @@
       <c r="B75" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="5"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1797,7 +1803,7 @@
       <c r="B76" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="20">
         <v>2</v>
       </c>
       <c r="D76" s="7"/>
@@ -1809,7 +1815,7 @@
       <c r="B77" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="5"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,7 +1826,7 @@
         <v>65</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
@@ -1829,7 +1835,7 @@
       <c r="B79" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="5"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,7 +1845,7 @@
       <c r="B80" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="5"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,7 +1856,7 @@
         <v>67</v>
       </c>
       <c r="C81" s="7"/>
-      <c r="D81" s="5"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
@@ -1859,7 +1865,7 @@
       <c r="B82" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="20">
         <v>4</v>
       </c>
       <c r="D82" s="7"/>
@@ -1871,7 +1877,7 @@
       <c r="B83" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,7 +1888,7 @@
         <v>71</v>
       </c>
       <c r="C84" s="7"/>
-      <c r="D84" s="5"/>
+      <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
@@ -1892,7 +1898,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="7"/>
-      <c r="D85" s="5">
+      <c r="D85" s="20">
         <v>9</v>
       </c>
     </row>
@@ -1904,7 +1910,7 @@
         <v>73</v>
       </c>
       <c r="C86" s="7"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="20"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
@@ -1914,7 +1920,7 @@
         <v>74</v>
       </c>
       <c r="C87" s="7"/>
-      <c r="D87" s="5">
+      <c r="D87" s="20">
         <v>22</v>
       </c>
     </row>
@@ -1926,7 +1932,7 @@
         <v>75</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="5">
+      <c r="D88" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1938,7 +1944,7 @@
         <v>76</v>
       </c>
       <c r="C89" s="7"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="20"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
@@ -1947,7 +1953,7 @@
       <c r="B90" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C90" s="5"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1958,7 +1964,7 @@
         <v>78</v>
       </c>
       <c r="C91" s="7"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="20"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
@@ -1968,7 +1974,7 @@
         <v>79</v>
       </c>
       <c r="C92" s="7"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="20"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
@@ -1978,7 +1984,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="5">
+      <c r="D93" s="20">
         <v>6</v>
       </c>
     </row>
@@ -1990,7 +1996,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="7"/>
-      <c r="D94" s="5">
+      <c r="D94" s="20">
         <v>454</v>
       </c>
     </row>
@@ -2002,7 +2008,7 @@
         <v>82</v>
       </c>
       <c r="C95" s="7"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="20"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
@@ -2012,7 +2018,7 @@
         <v>83</v>
       </c>
       <c r="C96" s="7"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="20"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
@@ -2022,7 +2028,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="7"/>
-      <c r="D97" s="5">
+      <c r="D97" s="20">
         <v>7</v>
       </c>
     </row>
@@ -2033,7 +2039,7 @@
       <c r="B98" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="5"/>
+      <c r="C98" s="20"/>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2043,7 +2049,7 @@
       <c r="B99" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C99" s="5"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2054,7 +2060,7 @@
         <v>87</v>
       </c>
       <c r="C100" s="7"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="20"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
@@ -2064,7 +2070,7 @@
         <v>88</v>
       </c>
       <c r="C101" s="7"/>
-      <c r="D101" s="5"/>
+      <c r="D101" s="20"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
@@ -2074,7 +2080,7 @@
         <v>89</v>
       </c>
       <c r="C102" s="7"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="20"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
@@ -2106,7 +2112,7 @@
         <v>90</v>
       </c>
       <c r="C105" s="7"/>
-      <c r="D105" s="5"/>
+      <c r="D105" s="20"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
@@ -2116,7 +2122,7 @@
         <v>91</v>
       </c>
       <c r="C106" s="7"/>
-      <c r="D106" s="5"/>
+      <c r="D106" s="20"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
@@ -2126,7 +2132,7 @@
         <v>92</v>
       </c>
       <c r="C107" s="7"/>
-      <c r="D107" s="5">
+      <c r="D107" s="20">
         <v>45</v>
       </c>
     </row>
@@ -2138,7 +2144,7 @@
         <v>93</v>
       </c>
       <c r="C108" s="7"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="20"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
@@ -2148,7 +2154,7 @@
         <v>94</v>
       </c>
       <c r="C109" s="7"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="20"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
@@ -2158,7 +2164,7 @@
         <v>95</v>
       </c>
       <c r="C110" s="7"/>
-      <c r="D110" s="5"/>
+      <c r="D110" s="20"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
@@ -2189,7 +2195,7 @@
       <c r="B113" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C113" s="5"/>
+      <c r="C113" s="20"/>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2199,7 +2205,7 @@
       <c r="B114" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="20">
         <v>66</v>
       </c>
       <c r="D114" s="7"/>
@@ -2211,7 +2217,7 @@
       <c r="B115" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C115" s="5"/>
+      <c r="C115" s="20"/>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2221,7 +2227,7 @@
       <c r="B116" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="20">
         <v>23</v>
       </c>
       <c r="D116" s="7"/>
@@ -2233,7 +2239,7 @@
       <c r="B117" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="5"/>
+      <c r="C117" s="20"/>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2243,7 +2249,7 @@
       <c r="B118" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="20">
         <v>4</v>
       </c>
       <c r="D118" s="7"/>
@@ -2255,7 +2261,7 @@
       <c r="B119" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C119" s="5"/>
+      <c r="C119" s="20"/>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2265,7 +2271,7 @@
       <c r="B120" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="20">
         <v>24</v>
       </c>
       <c r="D120" s="7"/>
@@ -2277,7 +2283,7 @@
       <c r="B121" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="20">
         <v>2</v>
       </c>
       <c r="D121" s="7"/>
@@ -2289,7 +2295,7 @@
       <c r="B122" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C122" s="5"/>
+      <c r="C122" s="20"/>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2299,7 +2305,7 @@
       <c r="B123" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="20">
         <v>34</v>
       </c>
       <c r="D123" s="7"/>
@@ -2312,7 +2318,7 @@
         <v>107</v>
       </c>
       <c r="C124" s="7"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="20"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
@@ -2321,7 +2327,7 @@
       <c r="B125" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="5"/>
+      <c r="C125" s="20"/>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2331,7 +2337,7 @@
       <c r="B126" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C126" s="5"/>
+      <c r="C126" s="20"/>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2342,7 +2348,7 @@
         <v>110</v>
       </c>
       <c r="C127" s="7"/>
-      <c r="D127" s="5"/>
+      <c r="D127" s="20"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
@@ -2374,7 +2380,7 @@
         <v>111</v>
       </c>
       <c r="C130" s="7"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="20"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
@@ -2384,7 +2390,7 @@
         <v>112</v>
       </c>
       <c r="C131" s="7"/>
-      <c r="D131" s="5">
+      <c r="D131" s="20">
         <v>24</v>
       </c>
     </row>
@@ -2396,7 +2402,7 @@
         <v>113</v>
       </c>
       <c r="C132" s="7"/>
-      <c r="D132" s="5"/>
+      <c r="D132" s="20"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
@@ -2406,7 +2412,7 @@
         <v>114</v>
       </c>
       <c r="C133" s="7"/>
-      <c r="D133" s="5">
+      <c r="D133" s="20">
         <v>234</v>
       </c>
     </row>
@@ -2418,7 +2424,7 @@
         <v>115</v>
       </c>
       <c r="C134" s="7"/>
-      <c r="D134" s="5"/>
+      <c r="D134" s="20"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
@@ -2428,7 +2434,7 @@
         <v>116</v>
       </c>
       <c r="C135" s="7"/>
-      <c r="D135" s="5"/>
+      <c r="D135" s="20"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
@@ -2437,7 +2443,7 @@
       <c r="B136" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C136" s="5"/>
+      <c r="C136" s="20"/>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2448,7 +2454,7 @@
         <v>118</v>
       </c>
       <c r="C137" s="7"/>
-      <c r="D137" s="5"/>
+      <c r="D137" s="20"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
@@ -2458,7 +2464,7 @@
         <v>119</v>
       </c>
       <c r="C138" s="7"/>
-      <c r="D138" s="5">
+      <c r="D138" s="20">
         <v>4</v>
       </c>
     </row>
@@ -2470,7 +2476,7 @@
         <v>120</v>
       </c>
       <c r="C139" s="7"/>
-      <c r="D139" s="5"/>
+      <c r="D139" s="20"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
@@ -2480,7 +2486,7 @@
         <v>121</v>
       </c>
       <c r="C140" s="7"/>
-      <c r="D140" s="5">
+      <c r="D140" s="20">
         <v>6</v>
       </c>
     </row>
@@ -2492,7 +2498,7 @@
         <v>122</v>
       </c>
       <c r="C141" s="7"/>
-      <c r="D141" s="5">
+      <c r="D141" s="20">
         <v>244</v>
       </c>
     </row>
@@ -2504,7 +2510,7 @@
         <v>123</v>
       </c>
       <c r="C142" s="7"/>
-      <c r="D142" s="5"/>
+      <c r="D142" s="20"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
@@ -2514,7 +2520,7 @@
         <v>124</v>
       </c>
       <c r="C143" s="7"/>
-      <c r="D143" s="5"/>
+      <c r="D143" s="20"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
@@ -2523,7 +2529,7 @@
       <c r="B144" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C144" s="5"/>
+      <c r="C144" s="20"/>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2534,7 +2540,7 @@
         <v>126</v>
       </c>
       <c r="C145" s="7"/>
-      <c r="D145" s="5"/>
+      <c r="D145" s="20"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
@@ -2544,7 +2550,7 @@
         <v>127</v>
       </c>
       <c r="C146" s="7"/>
-      <c r="D146" s="5"/>
+      <c r="D146" s="20"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
@@ -2554,7 +2560,7 @@
         <v>128</v>
       </c>
       <c r="C147" s="7"/>
-      <c r="D147" s="5"/>
+      <c r="D147" s="20"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
@@ -2563,7 +2569,7 @@
       <c r="B148" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C148" s="5"/>
+      <c r="C148" s="20"/>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2574,7 +2580,7 @@
         <v>130</v>
       </c>
       <c r="C149" s="7"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="20"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
@@ -2584,7 +2590,7 @@
         <v>131</v>
       </c>
       <c r="C150" s="7"/>
-      <c r="D150" s="5">
+      <c r="D150" s="20">
         <v>3</v>
       </c>
     </row>
@@ -2607,14 +2613,15 @@
       <c r="B156" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="hrWDuP+1HTyIFaW10nhqvY8w86F7j0UlLqDxxhLX8DpyGHwBvEDvcK9lDIxi5c5vkSlWoi4NzwiQyqHnlIOGLA==" saltValue="++ntUiDysbqF9ixgZil38Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A111:D111"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A58:D58"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bestelformulier.xlsx
+++ b/Bestelformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALA\ALA Site\ALA-Versnelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9074FE-1538-47F9-8202-7C380F2DFC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16183808-7822-44B7-94ED-9D6244DAF2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3571CD-4E07-41C2-8874-12AF6664D2CF}"/>
   </bookViews>
@@ -629,15 +629,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -649,6 +640,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63E44C4-2CD0-48F8-A5D8-0D7C5E49DF05}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,7 +1066,7 @@
       <c r="A6" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>142</v>
       </c>
       <c r="C6" s="12"/>
@@ -1079,7 +1079,7 @@
       <c r="A7" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <v>628645</v>
       </c>
       <c r="C7" s="12"/>
@@ -1092,7 +1092,7 @@
       <c r="A8" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>44608</v>
       </c>
       <c r="C8" s="12"/>
@@ -1102,12 +1102,12 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1125,12 +1125,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1141,15 +1141,15 @@
         <v>5</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="20"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
@@ -1184,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
@@ -1204,9 +1204,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="20">
-        <v>4</v>
-      </c>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -1216,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
@@ -1226,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
@@ -1236,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="20"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
@@ -1246,15 +1244,15 @@
         <v>13</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="20"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -1278,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -1288,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
@@ -1298,7 +1296,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -1307,9 +1305,7 @@
       <c r="B28" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="20">
-        <v>5</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="20"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
@@ -1330,7 +1326,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -1340,9 +1336,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="20">
-        <v>24</v>
-      </c>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
@@ -1352,7 +1346,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
@@ -1362,7 +1356,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="20"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
@@ -1371,7 +1365,7 @@
       <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="20"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1382,7 +1376,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="20"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
@@ -1391,7 +1385,7 @@
       <c r="B36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1401,9 +1395,7 @@
       <c r="B37" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="20">
-        <v>3</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,7 +1406,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="20"/>
+      <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
@@ -1424,7 +1416,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="20"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
@@ -1433,7 +1425,7 @@
       <c r="B40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="17"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1443,7 +1435,7 @@
       <c r="B41" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1453,7 +1445,7 @@
       <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1463,7 +1455,7 @@
       <c r="B43" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,7 +1466,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
@@ -1483,7 +1475,7 @@
       <c r="B45" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="17"/>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1493,9 +1485,7 @@
       <c r="B46" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="20">
-        <v>121</v>
-      </c>
+      <c r="C46" s="17"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1505,7 +1495,7 @@
       <c r="B47" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="20"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1515,7 +1505,7 @@
       <c r="B48" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="20"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1525,7 +1515,7 @@
       <c r="B49" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="20"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1536,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="C50" s="7"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
@@ -1546,7 +1536,7 @@
         <v>40</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -1555,7 +1545,7 @@
       <c r="B52" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="20"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1566,7 +1556,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="20"/>
+      <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
@@ -1576,7 +1566,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="20"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
@@ -1586,7 +1576,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="20"/>
+      <c r="D55" s="17"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
@@ -1596,9 +1586,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="20">
-        <v>45</v>
-      </c>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
@@ -1608,15 +1596,15 @@
         <v>46</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="20"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -1640,7 +1628,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="7"/>
-      <c r="D60" s="20"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
@@ -1649,7 +1637,7 @@
       <c r="B61" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="20"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1660,7 +1648,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="20"/>
+      <c r="D62" s="17"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
@@ -1670,9 +1658,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="7"/>
-      <c r="D63" s="20">
-        <v>3</v>
-      </c>
+      <c r="D63" s="17"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
@@ -1682,7 +1668,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="7"/>
-      <c r="D64" s="20"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
@@ -1692,7 +1678,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="7"/>
-      <c r="D65" s="20"/>
+      <c r="D65" s="17"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
@@ -1702,7 +1688,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="7"/>
-      <c r="D66" s="20"/>
+      <c r="D66" s="17"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
@@ -1711,7 +1697,7 @@
       <c r="B67" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="20"/>
+      <c r="C67" s="17"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1722,9 +1708,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="20">
-        <v>34</v>
-      </c>
+      <c r="D68" s="17"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
@@ -1734,7 +1718,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="7"/>
-      <c r="D69" s="20"/>
+      <c r="D69" s="17"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
@@ -1743,7 +1727,7 @@
       <c r="B70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="20"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1753,7 +1737,7 @@
       <c r="B71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="20"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1764,7 +1748,7 @@
         <v>59</v>
       </c>
       <c r="C72" s="7"/>
-      <c r="D72" s="20"/>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
@@ -1774,7 +1758,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="7"/>
-      <c r="D73" s="20"/>
+      <c r="D73" s="17"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
@@ -1783,7 +1767,7 @@
       <c r="B74" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="20"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1793,7 +1777,7 @@
       <c r="B75" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="20"/>
+      <c r="C75" s="17"/>
       <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1803,9 +1787,7 @@
       <c r="B76" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="20">
-        <v>2</v>
-      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1815,7 +1797,7 @@
       <c r="B77" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="20"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1826,7 +1808,7 @@
         <v>65</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="20"/>
+      <c r="D78" s="17"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
@@ -1835,7 +1817,7 @@
       <c r="B79" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="20"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1845,7 +1827,7 @@
       <c r="B80" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="20"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,7 +1838,7 @@
         <v>67</v>
       </c>
       <c r="C81" s="7"/>
-      <c r="D81" s="20"/>
+      <c r="D81" s="17"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
@@ -1865,9 +1847,7 @@
       <c r="B82" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="20">
-        <v>4</v>
-      </c>
+      <c r="C82" s="17"/>
       <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1877,7 +1857,7 @@
       <c r="B83" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="20"/>
+      <c r="C83" s="17"/>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1888,7 +1868,7 @@
         <v>71</v>
       </c>
       <c r="C84" s="7"/>
-      <c r="D84" s="20"/>
+      <c r="D84" s="17"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
@@ -1898,9 +1878,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="7"/>
-      <c r="D85" s="20">
-        <v>9</v>
-      </c>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
@@ -1910,7 +1888,7 @@
         <v>73</v>
       </c>
       <c r="C86" s="7"/>
-      <c r="D86" s="20"/>
+      <c r="D86" s="17"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
@@ -1920,9 +1898,7 @@
         <v>74</v>
       </c>
       <c r="C87" s="7"/>
-      <c r="D87" s="20">
-        <v>22</v>
-      </c>
+      <c r="D87" s="17"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
@@ -1932,9 +1908,7 @@
         <v>75</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="20">
-        <v>5</v>
-      </c>
+      <c r="D88" s="17"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
@@ -1944,7 +1918,7 @@
         <v>76</v>
       </c>
       <c r="C89" s="7"/>
-      <c r="D89" s="20"/>
+      <c r="D89" s="17"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
@@ -1953,7 +1927,7 @@
       <c r="B90" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C90" s="20"/>
+      <c r="C90" s="17"/>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1964,7 +1938,7 @@
         <v>78</v>
       </c>
       <c r="C91" s="7"/>
-      <c r="D91" s="20"/>
+      <c r="D91" s="17"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
@@ -1974,7 +1948,7 @@
         <v>79</v>
       </c>
       <c r="C92" s="7"/>
-      <c r="D92" s="20"/>
+      <c r="D92" s="17"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
@@ -1984,9 +1958,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="20">
-        <v>6</v>
-      </c>
+      <c r="D93" s="17"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
@@ -1996,9 +1968,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="7"/>
-      <c r="D94" s="20">
-        <v>454</v>
-      </c>
+      <c r="D94" s="17"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
@@ -2008,7 +1978,7 @@
         <v>82</v>
       </c>
       <c r="C95" s="7"/>
-      <c r="D95" s="20"/>
+      <c r="D95" s="17"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
@@ -2018,7 +1988,7 @@
         <v>83</v>
       </c>
       <c r="C96" s="7"/>
-      <c r="D96" s="20"/>
+      <c r="D96" s="17"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
@@ -2028,9 +1998,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="7"/>
-      <c r="D97" s="20">
-        <v>7</v>
-      </c>
+      <c r="D97" s="17"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
@@ -2039,7 +2007,7 @@
       <c r="B98" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="20"/>
+      <c r="C98" s="17"/>
       <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2049,7 +2017,7 @@
       <c r="B99" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C99" s="20"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2060,7 +2028,7 @@
         <v>87</v>
       </c>
       <c r="C100" s="7"/>
-      <c r="D100" s="20"/>
+      <c r="D100" s="17"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
@@ -2070,7 +2038,7 @@
         <v>88</v>
       </c>
       <c r="C101" s="7"/>
-      <c r="D101" s="20"/>
+      <c r="D101" s="17"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
@@ -2080,15 +2048,15 @@
         <v>89</v>
       </c>
       <c r="C102" s="7"/>
-      <c r="D102" s="20"/>
+      <c r="D102" s="17"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="17"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="20"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
@@ -2112,7 +2080,7 @@
         <v>90</v>
       </c>
       <c r="C105" s="7"/>
-      <c r="D105" s="20"/>
+      <c r="D105" s="17"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
@@ -2122,7 +2090,7 @@
         <v>91</v>
       </c>
       <c r="C106" s="7"/>
-      <c r="D106" s="20"/>
+      <c r="D106" s="17"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
@@ -2132,9 +2100,7 @@
         <v>92</v>
       </c>
       <c r="C107" s="7"/>
-      <c r="D107" s="20">
-        <v>45</v>
-      </c>
+      <c r="D107" s="17"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
@@ -2144,7 +2110,7 @@
         <v>93</v>
       </c>
       <c r="C108" s="7"/>
-      <c r="D108" s="20"/>
+      <c r="D108" s="17"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
@@ -2154,7 +2120,7 @@
         <v>94</v>
       </c>
       <c r="C109" s="7"/>
-      <c r="D109" s="20"/>
+      <c r="D109" s="17"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
@@ -2164,15 +2130,15 @@
         <v>95</v>
       </c>
       <c r="C110" s="7"/>
-      <c r="D110" s="20"/>
+      <c r="D110" s="17"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="17"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
@@ -2195,7 +2161,7 @@
       <c r="B113" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C113" s="20"/>
+      <c r="C113" s="17"/>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2205,9 +2171,7 @@
       <c r="B114" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C114" s="20">
-        <v>66</v>
-      </c>
+      <c r="C114" s="17"/>
       <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2217,7 +2181,7 @@
       <c r="B115" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C115" s="20"/>
+      <c r="C115" s="17"/>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2227,9 +2191,7 @@
       <c r="B116" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="20">
-        <v>23</v>
-      </c>
+      <c r="C116" s="17"/>
       <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2239,7 +2201,7 @@
       <c r="B117" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="20"/>
+      <c r="C117" s="17"/>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2249,9 +2211,7 @@
       <c r="B118" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C118" s="20">
-        <v>4</v>
-      </c>
+      <c r="C118" s="17"/>
       <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2261,7 +2221,7 @@
       <c r="B119" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C119" s="20"/>
+      <c r="C119" s="17"/>
       <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2271,9 +2231,7 @@
       <c r="B120" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C120" s="20">
-        <v>24</v>
-      </c>
+      <c r="C120" s="17"/>
       <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2283,9 +2241,7 @@
       <c r="B121" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="20">
-        <v>2</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2295,7 +2251,7 @@
       <c r="B122" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C122" s="20"/>
+      <c r="C122" s="17"/>
       <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2305,9 +2261,7 @@
       <c r="B123" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C123" s="20">
-        <v>34</v>
-      </c>
+      <c r="C123" s="17"/>
       <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2318,7 +2272,7 @@
         <v>107</v>
       </c>
       <c r="C124" s="7"/>
-      <c r="D124" s="20"/>
+      <c r="D124" s="17"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
@@ -2327,7 +2281,7 @@
       <c r="B125" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="20"/>
+      <c r="C125" s="17"/>
       <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2337,7 +2291,7 @@
       <c r="B126" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C126" s="20"/>
+      <c r="C126" s="17"/>
       <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2348,15 +2302,15 @@
         <v>110</v>
       </c>
       <c r="C127" s="7"/>
-      <c r="D127" s="20"/>
+      <c r="D127" s="17"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="17"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="20"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
@@ -2380,7 +2334,7 @@
         <v>111</v>
       </c>
       <c r="C130" s="7"/>
-      <c r="D130" s="20"/>
+      <c r="D130" s="17"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
@@ -2390,9 +2344,7 @@
         <v>112</v>
       </c>
       <c r="C131" s="7"/>
-      <c r="D131" s="20">
-        <v>24</v>
-      </c>
+      <c r="D131" s="17"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
@@ -2402,7 +2354,7 @@
         <v>113</v>
       </c>
       <c r="C132" s="7"/>
-      <c r="D132" s="20"/>
+      <c r="D132" s="17"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
@@ -2412,9 +2364,7 @@
         <v>114</v>
       </c>
       <c r="C133" s="7"/>
-      <c r="D133" s="20">
-        <v>234</v>
-      </c>
+      <c r="D133" s="17"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
@@ -2424,7 +2374,7 @@
         <v>115</v>
       </c>
       <c r="C134" s="7"/>
-      <c r="D134" s="20"/>
+      <c r="D134" s="17"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
@@ -2434,7 +2384,7 @@
         <v>116</v>
       </c>
       <c r="C135" s="7"/>
-      <c r="D135" s="20"/>
+      <c r="D135" s="17"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
@@ -2443,7 +2393,7 @@
       <c r="B136" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C136" s="20"/>
+      <c r="C136" s="17"/>
       <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2454,7 +2404,7 @@
         <v>118</v>
       </c>
       <c r="C137" s="7"/>
-      <c r="D137" s="20"/>
+      <c r="D137" s="17"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
@@ -2464,9 +2414,7 @@
         <v>119</v>
       </c>
       <c r="C138" s="7"/>
-      <c r="D138" s="20">
-        <v>4</v>
-      </c>
+      <c r="D138" s="17"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
@@ -2476,7 +2424,7 @@
         <v>120</v>
       </c>
       <c r="C139" s="7"/>
-      <c r="D139" s="20"/>
+      <c r="D139" s="17"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
@@ -2486,9 +2434,7 @@
         <v>121</v>
       </c>
       <c r="C140" s="7"/>
-      <c r="D140" s="20">
-        <v>6</v>
-      </c>
+      <c r="D140" s="17"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
@@ -2498,9 +2444,7 @@
         <v>122</v>
       </c>
       <c r="C141" s="7"/>
-      <c r="D141" s="20">
-        <v>244</v>
-      </c>
+      <c r="D141" s="17"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
@@ -2510,7 +2454,7 @@
         <v>123</v>
       </c>
       <c r="C142" s="7"/>
-      <c r="D142" s="20"/>
+      <c r="D142" s="17"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
@@ -2520,7 +2464,7 @@
         <v>124</v>
       </c>
       <c r="C143" s="7"/>
-      <c r="D143" s="20"/>
+      <c r="D143" s="17"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
@@ -2529,7 +2473,7 @@
       <c r="B144" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C144" s="20"/>
+      <c r="C144" s="17"/>
       <c r="D144" s="7"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2540,7 +2484,7 @@
         <v>126</v>
       </c>
       <c r="C145" s="7"/>
-      <c r="D145" s="20"/>
+      <c r="D145" s="17"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
@@ -2550,7 +2494,7 @@
         <v>127</v>
       </c>
       <c r="C146" s="7"/>
-      <c r="D146" s="20"/>
+      <c r="D146" s="17"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
@@ -2560,7 +2504,7 @@
         <v>128</v>
       </c>
       <c r="C147" s="7"/>
-      <c r="D147" s="20"/>
+      <c r="D147" s="17"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
@@ -2569,7 +2513,7 @@
       <c r="B148" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C148" s="20"/>
+      <c r="C148" s="17"/>
       <c r="D148" s="7"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2580,7 +2524,7 @@
         <v>130</v>
       </c>
       <c r="C149" s="7"/>
-      <c r="D149" s="20"/>
+      <c r="D149" s="17"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
@@ -2590,9 +2534,7 @@
         <v>131</v>
       </c>
       <c r="C150" s="7"/>
-      <c r="D150" s="20">
-        <v>3</v>
-      </c>
+      <c r="D150" s="17"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B151" s="2"/>
@@ -2613,7 +2555,7 @@
       <c r="B156" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hrWDuP+1HTyIFaW10nhqvY8w86F7j0UlLqDxxhLX8DpyGHwBvEDvcK9lDIxi5c5vkSlWoi4NzwiQyqHnlIOGLA==" saltValue="++ntUiDysbqF9ixgZil38Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AeSOz/PkBnGwNXdfFahbPIVIEPz2X1pNgBxXamgwny7SkDrBasH9JAvuYNJYDZEGC9mGq0CEbj7f7Azuj9UlQw==" saltValue="Y70v+MPdot0+VFMTm0qGEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A9:D9"/>

--- a/Bestelformulier.xlsx
+++ b/Bestelformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALA\ALA Site\ALA-Versnelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16183808-7822-44B7-94ED-9D6244DAF2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD27FB-3187-4007-9ECA-BD7E27A06B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3571CD-4E07-41C2-8874-12AF6664D2CF}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1130,9 @@
       <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="17">
+        <v>13</v>
+      </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1141,7 +1143,9 @@
         <v>5</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
@@ -1224,7 +1228,9 @@
         <v>11</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="17"/>
+      <c r="D20" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">

--- a/Bestelformulier.xlsx
+++ b/Bestelformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALA\ALA Site\ALA-Versnelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD27FB-3187-4007-9ECA-BD7E27A06B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207779C5-5214-43E8-8CF2-75400FCBEB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3571CD-4E07-41C2-8874-12AF6664D2CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
   <si>
     <t>ProductID</t>
   </si>
@@ -463,7 +463,10 @@
     <t>Klantennummer:</t>
   </si>
   <si>
-    <t>Bart van Wijk</t>
+    <t>Prijs</t>
+  </si>
+  <si>
+    <t>Thomas van Bruchem</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -599,11 +602,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -622,10 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -641,6 +654,29 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,6 +684,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -674,13 +722,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7619</xdr:rowOff>
+      <xdr:rowOff>7618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -709,8 +757,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7619"/>
-          <a:ext cx="4785360" cy="906781"/>
+          <a:off x="0" y="7618"/>
+          <a:ext cx="5410200" cy="914401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1063,57 +1111,58 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="15">
-        <v>628645</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="12">
+        <v>328734</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="16">
-        <v>44608</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="13">
+        <v>44614</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -1121,46 +1170,53 @@
       </c>
       <c r="D10" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>11001</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="17">
-        <v>13</v>
+      <c r="C11" s="14">
+        <v>230023</v>
       </c>
       <c r="D11" s="7"/>
+      <c r="E11" s="20">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="15">
         <v>11002</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="17">
-        <v>5</v>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20">
+        <v>4.34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1168,103 +1224,133 @@
       </c>
       <c r="D14" s="6" t="s">
         <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>21003</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="21">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>21004</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="14"/>
+      <c r="E16" s="21">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>21005</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="14">
+        <v>32</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>21006</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="14"/>
+      <c r="E18" s="21">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>21007</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="14">
+        <v>34</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>21008</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="14"/>
+      <c r="E20" s="21">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>21009</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="D21" s="14"/>
+      <c r="E21" s="21">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>21010</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="21">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1273,350 +1359,465 @@
       <c r="D24" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>31011</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="14"/>
+      <c r="E25" s="21">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>31012</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="14"/>
+      <c r="E26" s="21">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>31013</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="14"/>
+      <c r="E27" s="21">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>31014</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="21">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>31015</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="14"/>
+      <c r="E29" s="21">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>31016</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="14">
+        <v>34</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>31017</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="14"/>
+      <c r="E31" s="21">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>31018</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="14"/>
+      <c r="E32" s="21">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>31019</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="14">
+        <v>2</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>31020</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="21">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>31021</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="14"/>
+      <c r="E35" s="21">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>31022</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="21">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>31023</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="14">
+        <v>5</v>
+      </c>
       <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" s="21">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>31024</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="14"/>
+      <c r="E38" s="21">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>31025</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="14">
+        <v>3</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>31026</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" s="21">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>31027</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" s="21">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>31028</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" s="21">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>31029</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" s="21">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>31030</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="14"/>
+      <c r="E44" s="21">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>31031</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" s="21">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>31032</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" s="21">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>31033</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="14">
+        <v>31</v>
+      </c>
       <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" s="21">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>31034</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" s="21">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>31035</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" s="21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>31036</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="7"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="14"/>
+      <c r="E50" s="21">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>31037</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="14"/>
+      <c r="E51" s="21">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>31038</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>31039</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="14"/>
+      <c r="E53" s="21">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>31040</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="7"/>
-      <c r="D54" s="17"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="14"/>
+      <c r="E54" s="21">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>31041</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="14">
+        <v>4</v>
+      </c>
+      <c r="E55" s="21">
+        <v>8.99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>31042</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="5">
+      <c r="D56" s="14"/>
+      <c r="E56" s="21">
+        <v>18.690000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
         <v>31043</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="21">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -1625,450 +1826,599 @@
       <c r="D59" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>41044</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="7"/>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="14"/>
+      <c r="E60" s="21">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>41045</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="7"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" s="21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>41046</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="14"/>
+      <c r="E62" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>41047</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C63" s="7"/>
-      <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="14"/>
+      <c r="E63" s="21">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>41048</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C64" s="7"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="14">
+        <v>9</v>
+      </c>
+      <c r="E64" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>41049</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="7"/>
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="14">
+        <v>5</v>
+      </c>
+      <c r="E65" s="21">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>41050</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C66" s="7"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="14"/>
+      <c r="E66" s="21">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>41051</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="17"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67" s="21">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>41052</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="14"/>
+      <c r="E68" s="21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>41053</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="7"/>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="14"/>
+      <c r="E69" s="21">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>41054</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="17"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70" s="21">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>41055</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="17"/>
+      <c r="C71" s="14">
+        <v>23</v>
+      </c>
       <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71" s="21">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>41056</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C72" s="7"/>
-      <c r="D72" s="17"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="14"/>
+      <c r="E72" s="21">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>41057</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="7"/>
-      <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="14"/>
+      <c r="E73" s="21">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>41058</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="17"/>
+      <c r="C74" s="14"/>
       <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74" s="21">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>41059</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="17"/>
+      <c r="C75" s="14"/>
       <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>41060</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="14">
+        <v>7</v>
+      </c>
       <c r="D76" s="7"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76" s="21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>41061</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="17"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="7"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77" s="21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>41062</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C78" s="7"/>
-      <c r="D78" s="17"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="14"/>
+      <c r="E78" s="21">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>41063</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="17"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="7"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79" s="21">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>41064</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="17"/>
+      <c r="C80" s="14"/>
       <c r="D80" s="7"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80" s="21">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>41065</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="7"/>
-      <c r="D81" s="17"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="14"/>
+      <c r="E81" s="21">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>41066</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="17"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>41067</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="17"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83" s="21">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>41068</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C84" s="7"/>
-      <c r="D84" s="17"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="14"/>
+      <c r="E84" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>41069</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C85" s="7"/>
-      <c r="D85" s="17"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="14"/>
+      <c r="E85" s="21">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>41070</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C86" s="7"/>
-      <c r="D86" s="17"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="14">
+        <v>35</v>
+      </c>
+      <c r="E86" s="21">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>41071</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C87" s="7"/>
-      <c r="D87" s="17"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="14"/>
+      <c r="E87" s="21">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>41072</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="17"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="14"/>
+      <c r="E88" s="21">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>41073</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C89" s="7"/>
-      <c r="D89" s="17"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="14"/>
+      <c r="E89" s="21">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>41074</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C90" s="17"/>
+      <c r="C90" s="14"/>
       <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="21">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>41075</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C91" s="7"/>
-      <c r="D91" s="17"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="14"/>
+      <c r="E91" s="21">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>41076</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C92" s="7"/>
-      <c r="D92" s="17"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="14">
+        <v>4</v>
+      </c>
+      <c r="E92" s="21">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>41077</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C93" s="7"/>
-      <c r="D93" s="17"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="14"/>
+      <c r="E93" s="21">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>41078</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C94" s="7"/>
-      <c r="D94" s="17"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="14">
+        <v>23</v>
+      </c>
+      <c r="E94" s="21">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>41079</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C95" s="7"/>
-      <c r="D95" s="17"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="14"/>
+      <c r="E95" s="21">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>41080</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C96" s="7"/>
-      <c r="D96" s="17"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="14"/>
+      <c r="E96" s="21">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>41081</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C97" s="7"/>
-      <c r="D97" s="17"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="14">
+        <v>53</v>
+      </c>
+      <c r="E97" s="21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>41082</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="7"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>41083</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99" s="21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>41084</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C100" s="7"/>
-      <c r="D100" s="17"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="14"/>
+      <c r="E100" s="21">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>41085</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C101" s="7"/>
-      <c r="D101" s="17"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
+      <c r="D101" s="14"/>
+      <c r="E101" s="21">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="15">
         <v>41086</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="17"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="18" t="s">
+      <c r="C102" s="17"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="21">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="20"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="6" t="s">
@@ -2077,80 +2427,104 @@
       <c r="D104" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>51087</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C105" s="7"/>
-      <c r="D105" s="17"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="14"/>
+      <c r="E105" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>51088</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C106" s="7"/>
-      <c r="D106" s="17"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="14"/>
+      <c r="E106" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>51089</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C107" s="7"/>
-      <c r="D107" s="17"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="14"/>
+      <c r="E107" s="21">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>51090</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C108" s="7"/>
-      <c r="D108" s="17"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="14"/>
+      <c r="E108" s="21">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>51091</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C109" s="7"/>
-      <c r="D109" s="17"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="5">
+      <c r="D109" s="14">
+        <v>2</v>
+      </c>
+      <c r="E109" s="21">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="15">
         <v>51092</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="17"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
+      <c r="C110" s="17"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="21">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C112" s="6" t="s">
@@ -2159,170 +2533,227 @@
       <c r="D112" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>61093</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C113" s="17"/>
+      <c r="C113" s="14"/>
       <c r="D113" s="7"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113" s="21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>61094</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C114" s="17"/>
+      <c r="C114" s="14"/>
       <c r="D114" s="7"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114" s="21">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>61095</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C115" s="17"/>
+      <c r="C115" s="14">
+        <v>6</v>
+      </c>
       <c r="D115" s="7"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115" s="21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>61096</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="17"/>
+      <c r="C116" s="14"/>
       <c r="D116" s="7"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116" s="21">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>61097</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="17"/>
+      <c r="C117" s="14">
+        <v>35342</v>
+      </c>
       <c r="D117" s="7"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117" s="21">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>61098</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C118" s="17"/>
+      <c r="C118" s="14"/>
       <c r="D118" s="7"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118" s="21">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>61099</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C119" s="17"/>
+      <c r="C119" s="14"/>
       <c r="D119" s="7"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119" s="21">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>61100</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C120" s="17"/>
+      <c r="C120" s="14"/>
       <c r="D120" s="7"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120" s="21">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>61101</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="14">
+        <v>54</v>
+      </c>
       <c r="D121" s="7"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121" s="21">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>61102</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C122" s="17"/>
+      <c r="C122" s="14"/>
       <c r="D122" s="7"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122" s="21">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>61103</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C123" s="17"/>
+      <c r="C123" s="14"/>
       <c r="D123" s="7"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123" s="21">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>61104</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C124" s="7"/>
-      <c r="D124" s="17"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="14">
+        <v>6</v>
+      </c>
+      <c r="E124" s="21">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>61105</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="17"/>
+      <c r="C125" s="14"/>
       <c r="D125" s="7"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125" s="21">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>61106</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C126" s="17"/>
+      <c r="C126" s="14"/>
       <c r="D126" s="7"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="5">
+      <c r="E126" s="21">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="15">
         <v>61107</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="17"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="18" t="s">
+      <c r="C127" s="17"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="21">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="20"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="25"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C129" s="6" t="s">
@@ -2331,245 +2762,323 @@
       <c r="D129" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>71108</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C130" s="7"/>
-      <c r="D130" s="17"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="14"/>
+      <c r="E130" s="21">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>71109</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C131" s="7"/>
-      <c r="D131" s="17"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="14"/>
+      <c r="E131" s="21">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>71110</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C132" s="7"/>
-      <c r="D132" s="17"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="14">
+        <v>32483</v>
+      </c>
+      <c r="E132" s="21">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>71111</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C133" s="7"/>
-      <c r="D133" s="17"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="14"/>
+      <c r="E133" s="21">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>71112</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C134" s="7"/>
-      <c r="D134" s="17"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="14"/>
+      <c r="E134" s="21">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>71113</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C135" s="7"/>
-      <c r="D135" s="17"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="14"/>
+      <c r="E135" s="21">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>71114</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C136" s="17"/>
+      <c r="C136" s="14"/>
       <c r="D136" s="7"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136" s="21">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>71115</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C137" s="7"/>
-      <c r="D137" s="17"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="14"/>
+      <c r="E137" s="21">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>71116</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C138" s="7"/>
-      <c r="D138" s="17"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="14"/>
+      <c r="E138" s="21">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>71117</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="7"/>
-      <c r="D139" s="17"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="14">
+        <v>3432</v>
+      </c>
+      <c r="E139" s="21">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>71118</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C140" s="7"/>
-      <c r="D140" s="17"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="14">
+        <v>11109</v>
+      </c>
+      <c r="E140" s="21">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>71119</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C141" s="7"/>
-      <c r="D141" s="17"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="14"/>
+      <c r="E141" s="21">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>71120</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C142" s="7"/>
-      <c r="D142" s="17"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="14"/>
+      <c r="E142" s="21">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>71121</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C143" s="7"/>
-      <c r="D143" s="17"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="14"/>
+      <c r="E143" s="21">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>71122</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C144" s="17"/>
+      <c r="C144" s="14"/>
       <c r="D144" s="7"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>71123</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C145" s="7"/>
-      <c r="D145" s="17"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="14"/>
+      <c r="E145" s="21">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>71124</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C146" s="7"/>
-      <c r="D146" s="17"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="14">
+        <v>598</v>
+      </c>
+      <c r="E146" s="21">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>71125</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C147" s="7"/>
-      <c r="D147" s="17"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="14"/>
+      <c r="E147" s="21">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>71126</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C148" s="17"/>
+      <c r="C148" s="14">
+        <v>1832</v>
+      </c>
       <c r="D148" s="7"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148" s="21">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>71127</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C149" s="7"/>
-      <c r="D149" s="17"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D149" s="14"/>
+      <c r="E149" s="21">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>71128</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C150" s="7"/>
-      <c r="D150" s="17"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D150" s="14"/>
+      <c r="E150" s="21">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B152" s="2"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B153" s="2"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B154" s="2"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B155" s="2"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B156" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AeSOz/PkBnGwNXdfFahbPIVIEPz2X1pNgBxXamgwny7SkDrBasH9JAvuYNJYDZEGC9mGq0CEbj7f7Azuj9UlQw==" saltValue="Y70v+MPdot0+VFMTm0qGEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="7">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A23:D23"/>
+  <mergeCells count="10">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A128:E128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bestelformulier.xlsx
+++ b/Bestelformulier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALA\ALA Site\ALA-Versnelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207779C5-5214-43E8-8CF2-75400FCBEB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C96082B-F075-4812-9152-890F556B1487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3571CD-4E07-41C2-8874-12AF6664D2CF}"/>
   </bookViews>
@@ -466,7 +466,7 @@
     <t>Prijs</t>
   </si>
   <si>
-    <t>Thomas van Bruchem</t>
+    <t>Bart van Wijk</t>
   </si>
 </sst>
 </file>
@@ -674,6 +674,18 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,18 +696,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,9 +1117,9 @@
       <c r="B6" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -1128,11 +1128,11 @@
         <v>141</v>
       </c>
       <c r="B7" s="12">
-        <v>328734</v>
+        <v>79001</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -1141,22 +1141,22 @@
         <v>140</v>
       </c>
       <c r="B8" s="13">
-        <v>44614</v>
+        <v>44637</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="14">
-        <v>230023</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="20">
@@ -1204,13 +1204,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1263,9 +1263,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="14">
-        <v>32</v>
-      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="21">
         <v>1.54</v>
       </c>
@@ -1291,9 +1289,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="14">
-        <v>34</v>
-      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="21">
         <v>1.63</v>
       </c>
@@ -1338,13 +1334,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -1477,9 +1473,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="D33" s="14">
-        <v>2</v>
-      </c>
+      <c r="D33" s="14"/>
       <c r="E33" s="21">
         <v>1.73</v>
       </c>
@@ -1530,9 +1524,7 @@
       <c r="B37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="14">
-        <v>5</v>
-      </c>
+      <c r="C37" s="14"/>
       <c r="D37" s="7"/>
       <c r="E37" s="21">
         <v>0.35</v>
@@ -1559,9 +1551,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="14">
-        <v>3</v>
-      </c>
+      <c r="D39" s="14"/>
       <c r="E39" s="21">
         <v>1.79</v>
       </c>
@@ -1599,7 +1589,9 @@
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="14"/>
+      <c r="C42" s="14">
+        <v>45</v>
+      </c>
       <c r="D42" s="7"/>
       <c r="E42" s="21">
         <v>0.69</v>
@@ -1664,9 +1656,7 @@
       <c r="B47" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="14">
-        <v>31</v>
-      </c>
+      <c r="C47" s="14"/>
       <c r="D47" s="7"/>
       <c r="E47" s="21">
         <v>1.49</v>
@@ -1771,9 +1761,7 @@
         <v>44</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="14">
-        <v>4</v>
-      </c>
+      <c r="D55" s="14"/>
       <c r="E55" s="21">
         <v>8.99</v>
       </c>
@@ -1786,7 +1774,9 @@
         <v>45</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="14">
+        <v>23</v>
+      </c>
       <c r="E56" s="21">
         <v>18.690000000000001</v>
       </c>
@@ -1805,13 +1795,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -1890,9 +1880,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="7"/>
-      <c r="D64" s="14">
-        <v>9</v>
-      </c>
+      <c r="D64" s="14"/>
       <c r="E64" s="21">
         <v>1.75</v>
       </c>
@@ -1905,9 +1893,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="7"/>
-      <c r="D65" s="14">
-        <v>5</v>
-      </c>
+      <c r="D65" s="14"/>
       <c r="E65" s="21">
         <v>1.49</v>
       </c>
@@ -1984,9 +1970,7 @@
       <c r="B71" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="14">
-        <v>23</v>
-      </c>
+      <c r="C71" s="14"/>
       <c r="D71" s="7"/>
       <c r="E71" s="21">
         <v>0.69</v>
@@ -2052,7 +2036,7 @@
         <v>63</v>
       </c>
       <c r="C76" s="14">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="21">
@@ -2184,9 +2168,7 @@
         <v>73</v>
       </c>
       <c r="C86" s="7"/>
-      <c r="D86" s="14">
-        <v>35</v>
-      </c>
+      <c r="D86" s="14"/>
       <c r="E86" s="21">
         <v>1.49</v>
       </c>
@@ -2264,9 +2246,7 @@
         <v>79</v>
       </c>
       <c r="C92" s="7"/>
-      <c r="D92" s="14">
-        <v>4</v>
-      </c>
+      <c r="D92" s="14"/>
       <c r="E92" s="21">
         <v>2.99</v>
       </c>
@@ -2292,9 +2272,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="7"/>
-      <c r="D94" s="14">
-        <v>23</v>
-      </c>
+      <c r="D94" s="14"/>
       <c r="E94" s="21">
         <v>7.69</v>
       </c>
@@ -2320,7 +2298,9 @@
         <v>83</v>
       </c>
       <c r="C96" s="7"/>
-      <c r="D96" s="14"/>
+      <c r="D96" s="14">
+        <v>25</v>
+      </c>
       <c r="E96" s="21">
         <v>1.25</v>
       </c>
@@ -2333,9 +2313,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="7"/>
-      <c r="D97" s="14">
-        <v>53</v>
-      </c>
+      <c r="D97" s="14"/>
       <c r="E97" s="21">
         <v>0.89</v>
       </c>
@@ -2406,13 +2384,13 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
@@ -2478,7 +2456,9 @@
         <v>93</v>
       </c>
       <c r="C108" s="7"/>
-      <c r="D108" s="14"/>
+      <c r="D108" s="14">
+        <v>4</v>
+      </c>
       <c r="E108" s="21">
         <v>6.99</v>
       </c>
@@ -2491,9 +2471,7 @@
         <v>94</v>
       </c>
       <c r="C109" s="7"/>
-      <c r="D109" s="14">
-        <v>2</v>
-      </c>
+      <c r="D109" s="14"/>
       <c r="E109" s="21">
         <v>1.1499999999999999</v>
       </c>
@@ -2512,13 +2490,13 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
@@ -2570,9 +2548,7 @@
       <c r="B115" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C115" s="14">
-        <v>6</v>
-      </c>
+      <c r="C115" s="14"/>
       <c r="D115" s="7"/>
       <c r="E115" s="21">
         <v>0.85</v>
@@ -2598,9 +2574,7 @@
       <c r="B117" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C117" s="14">
-        <v>35342</v>
-      </c>
+      <c r="C117" s="14"/>
       <c r="D117" s="7"/>
       <c r="E117" s="21">
         <v>1.45</v>
@@ -2652,9 +2626,7 @@
       <c r="B121" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C121" s="14">
-        <v>54</v>
-      </c>
+      <c r="C121" s="14"/>
       <c r="D121" s="7"/>
       <c r="E121" s="21">
         <v>0.99</v>
@@ -2694,9 +2666,7 @@
         <v>107</v>
       </c>
       <c r="C124" s="7"/>
-      <c r="D124" s="14">
-        <v>6</v>
-      </c>
+      <c r="D124" s="14"/>
       <c r="E124" s="21">
         <v>2.99</v>
       </c>
@@ -2741,13 +2711,13 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="25"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="29"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
@@ -2800,9 +2770,7 @@
         <v>113</v>
       </c>
       <c r="C132" s="7"/>
-      <c r="D132" s="14">
-        <v>32483</v>
-      </c>
+      <c r="D132" s="14"/>
       <c r="E132" s="21">
         <v>2.25</v>
       </c>
@@ -2880,7 +2848,9 @@
         <v>119</v>
       </c>
       <c r="C138" s="7"/>
-      <c r="D138" s="14"/>
+      <c r="D138" s="14">
+        <v>23</v>
+      </c>
       <c r="E138" s="21">
         <v>4.99</v>
       </c>
@@ -2893,9 +2863,7 @@
         <v>120</v>
       </c>
       <c r="C139" s="7"/>
-      <c r="D139" s="14">
-        <v>3432</v>
-      </c>
+      <c r="D139" s="14"/>
       <c r="E139" s="21">
         <v>1.7</v>
       </c>
@@ -2908,9 +2876,7 @@
         <v>121</v>
       </c>
       <c r="C140" s="7"/>
-      <c r="D140" s="14">
-        <v>11109</v>
-      </c>
+      <c r="D140" s="14"/>
       <c r="E140" s="21">
         <v>11.99</v>
       </c>
@@ -2988,9 +2954,7 @@
         <v>127</v>
       </c>
       <c r="C146" s="7"/>
-      <c r="D146" s="14">
-        <v>598</v>
-      </c>
+      <c r="D146" s="14"/>
       <c r="E146" s="21">
         <v>1.56</v>
       </c>
@@ -3015,9 +2979,7 @@
       <c r="B148" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C148" s="14">
-        <v>1832</v>
-      </c>
+      <c r="C148" s="14"/>
       <c r="D148" s="7"/>
       <c r="E148" s="21">
         <v>0.56000000000000005</v>
@@ -3068,17 +3030,18 @@
       <c r="B156" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="qD9/fbH1/AoFXgNgI5aWf7fS8/HysAp1DejrEK7uMacHJ15Vq7N+h3ESDBmsJGlYKJupgfMXXwTexJtL/y1cGA==" saltValue="58eXoarfYO+qu6C9vN2mfg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A128:E128"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A128:E128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bestelformulier.xlsx
+++ b/Bestelformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALA\ALA Site\ALA-Versnelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C96082B-F075-4812-9152-890F556B1487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4388446-348E-45AF-B541-9F783845D13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3571CD-4E07-41C2-8874-12AF6664D2CF}"/>
   </bookViews>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63E44C4-2CD0-48F8-A5D8-0D7C5E49DF05}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="20">
@@ -1432,9 +1432,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="14">
-        <v>34</v>
-      </c>
+      <c r="D30" s="14"/>
       <c r="E30" s="21">
         <v>1.75</v>
       </c>
@@ -1589,9 +1587,7 @@
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="14">
-        <v>45</v>
-      </c>
+      <c r="C42" s="14"/>
       <c r="D42" s="7"/>
       <c r="E42" s="21">
         <v>0.69</v>
@@ -1774,9 +1770,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="14">
-        <v>23</v>
-      </c>
+      <c r="D56" s="14"/>
       <c r="E56" s="21">
         <v>18.690000000000001</v>
       </c>
@@ -2035,9 +2029,7 @@
       <c r="B76" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="14">
-        <v>45</v>
-      </c>
+      <c r="C76" s="14"/>
       <c r="D76" s="7"/>
       <c r="E76" s="21">
         <v>0.89</v>
@@ -2298,9 +2290,7 @@
         <v>83</v>
       </c>
       <c r="C96" s="7"/>
-      <c r="D96" s="14">
-        <v>25</v>
-      </c>
+      <c r="D96" s="14"/>
       <c r="E96" s="21">
         <v>1.25</v>
       </c>
@@ -2456,9 +2446,7 @@
         <v>93</v>
       </c>
       <c r="C108" s="7"/>
-      <c r="D108" s="14">
-        <v>4</v>
-      </c>
+      <c r="D108" s="14"/>
       <c r="E108" s="21">
         <v>6.99</v>
       </c>
@@ -2848,9 +2836,7 @@
         <v>119</v>
       </c>
       <c r="C138" s="7"/>
-      <c r="D138" s="14">
-        <v>23</v>
-      </c>
+      <c r="D138" s="14"/>
       <c r="E138" s="21">
         <v>4.99</v>
       </c>

--- a/Bestelformulier.xlsx
+++ b/Bestelformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALA\ALA Site\ALA-Versnelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4388446-348E-45AF-B541-9F783845D13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FF815-B23E-465D-AF23-41ABF69DCA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3571CD-4E07-41C2-8874-12AF6664D2CF}"/>
   </bookViews>
@@ -466,7 +466,7 @@
     <t>Prijs</t>
   </si>
   <si>
-    <t>Bart van Wijk</t>
+    <t>Rick van Wijk</t>
   </si>
 </sst>
 </file>
@@ -674,6 +674,18 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,18 +696,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63E44C4-2CD0-48F8-A5D8-0D7C5E49DF05}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,9 +1117,9 @@
       <c r="B6" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -1128,11 +1128,11 @@
         <v>141</v>
       </c>
       <c r="B7" s="12">
-        <v>79001</v>
+        <v>79006</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -1141,22 +1141,22 @@
         <v>140</v>
       </c>
       <c r="B8" s="13">
-        <v>44637</v>
+        <v>44641</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1204,13 +1204,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1276,7 +1276,9 @@
         <v>9</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14">
+        <v>23</v>
+      </c>
       <c r="E18" s="21">
         <v>1.45</v>
       </c>
@@ -1334,13 +1336,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -1770,7 +1772,9 @@
         <v>45</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="14">
+        <v>34</v>
+      </c>
       <c r="E56" s="21">
         <v>18.690000000000001</v>
       </c>
@@ -1789,13 +1793,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -2016,7 +2020,9 @@
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="14">
+        <v>3</v>
+      </c>
       <c r="D75" s="7"/>
       <c r="E75" s="21">
         <v>1.75</v>
@@ -2328,7 +2334,9 @@
       <c r="B99" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C99" s="14"/>
+      <c r="C99" s="14">
+        <v>2</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="21">
         <v>0.89</v>
@@ -2374,13 +2382,13 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
@@ -2478,13 +2486,13 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
@@ -2699,13 +2707,13 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="27" t="s">
+      <c r="A128" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="29"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
@@ -3018,16 +3026,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qD9/fbH1/AoFXgNgI5aWf7fS8/HysAp1DejrEK7uMacHJ15Vq7N+h3ESDBmsJGlYKJupgfMXXwTexJtL/y1cGA==" saltValue="58eXoarfYO+qu6C9vN2mfg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A103:E103"/>
     <mergeCell ref="A111:E111"/>
     <mergeCell ref="A128:E128"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bestelformulier.xlsx
+++ b/Bestelformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALA\ALA Site\ALA-Versnelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FF815-B23E-465D-AF23-41ABF69DCA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB38BA4-0A37-4E1F-A6FE-92F5313B125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3571CD-4E07-41C2-8874-12AF6664D2CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="143">
   <si>
     <t>ProductID</t>
   </si>
@@ -464,9 +464,6 @@
   </si>
   <si>
     <t>Prijs</t>
-  </si>
-  <si>
-    <t>Rick van Wijk</t>
   </si>
 </sst>
 </file>
@@ -674,6 +671,18 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,18 +693,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1069,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63E44C4-2CD0-48F8-A5D8-0D7C5E49DF05}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,12 +1111,10 @@
       <c r="A6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -1127,12 +1122,10 @@
       <c r="A7" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="12">
-        <v>79006</v>
-      </c>
+      <c r="B7" s="12"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -1140,23 +1133,21 @@
       <c r="A8" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="13">
-        <v>44641</v>
-      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1183,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="14">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="20">
@@ -1204,13 +1195,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1276,9 +1267,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="14">
-        <v>23</v>
-      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="21">
         <v>1.45</v>
       </c>
@@ -1291,7 +1280,9 @@
         <v>10</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14">
+        <v>4</v>
+      </c>
       <c r="E19" s="21">
         <v>1.63</v>
       </c>
@@ -1336,13 +1327,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -1421,7 +1412,9 @@
         <v>18</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
       <c r="E29" s="21">
         <v>1.69</v>
       </c>
@@ -1576,7 +1569,9 @@
       <c r="B41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="14">
+        <v>43</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="21">
         <v>0.35</v>
@@ -1773,7 +1768,7 @@
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="14">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E56" s="21">
         <v>18.690000000000001</v>
@@ -1793,13 +1788,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -2020,9 +2015,7 @@
       <c r="B75" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="14">
-        <v>3</v>
-      </c>
+      <c r="C75" s="14"/>
       <c r="D75" s="7"/>
       <c r="E75" s="21">
         <v>1.75</v>
@@ -2035,7 +2028,9 @@
       <c r="B76" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14">
+        <v>23</v>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="21">
         <v>0.89</v>
@@ -2283,7 +2278,9 @@
         <v>82</v>
       </c>
       <c r="C95" s="7"/>
-      <c r="D95" s="14"/>
+      <c r="D95" s="14">
+        <v>4</v>
+      </c>
       <c r="E95" s="21">
         <v>1.25</v>
       </c>
@@ -2334,9 +2331,7 @@
       <c r="B99" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C99" s="14">
-        <v>2</v>
-      </c>
+      <c r="C99" s="14"/>
       <c r="D99" s="7"/>
       <c r="E99" s="21">
         <v>0.89</v>
@@ -2382,13 +2377,13 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
@@ -2486,13 +2481,13 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="22"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
@@ -2557,7 +2552,9 @@
       <c r="B116" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="14"/>
+      <c r="C116" s="14">
+        <v>56</v>
+      </c>
       <c r="D116" s="7"/>
       <c r="E116" s="21">
         <v>1.35</v>
@@ -2707,13 +2704,13 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="25"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="29"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
@@ -2779,7 +2776,9 @@
         <v>114</v>
       </c>
       <c r="C133" s="7"/>
-      <c r="D133" s="14"/>
+      <c r="D133" s="14">
+        <v>2</v>
+      </c>
       <c r="E133" s="21">
         <v>4.95</v>
       </c>
@@ -2948,7 +2947,9 @@
         <v>127</v>
       </c>
       <c r="C146" s="7"/>
-      <c r="D146" s="14"/>
+      <c r="D146" s="14">
+        <v>3</v>
+      </c>
       <c r="E146" s="21">
         <v>1.56</v>
       </c>
@@ -3026,16 +3027,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qD9/fbH1/AoFXgNgI5aWf7fS8/HysAp1DejrEK7uMacHJ15Vq7N+h3ESDBmsJGlYKJupgfMXXwTexJtL/y1cGA==" saltValue="58eXoarfYO+qu6C9vN2mfg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A128:E128"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A128:E128"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bestelformulier.xlsx
+++ b/Bestelformulier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ALA\ALA Site\ALA-Versnelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB38BA4-0A37-4E1F-A6FE-92F5313B125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3FFB1B-3A9C-445A-82FE-695D643A33C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2A3571CD-4E07-41C2-8874-12AF6664D2CF}"/>
   </bookViews>
@@ -671,6 +671,18 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,18 +693,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63E44C4-2CD0-48F8-A5D8-0D7C5E49DF05}">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,9 +1112,9 @@
         <v>139</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -1124,8 +1124,8 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -1135,19 +1135,19 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="14">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="20">
@@ -1195,13 +1195,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -1280,9 +1280,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="14">
-        <v>4</v>
-      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="21">
         <v>1.63</v>
       </c>
@@ -1327,13 +1325,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -1412,9 +1410,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="14">
-        <v>2</v>
-      </c>
+      <c r="D29" s="14"/>
       <c r="E29" s="21">
         <v>1.69</v>
       </c>
@@ -1569,9 +1565,7 @@
       <c r="B41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="14">
-        <v>43</v>
-      </c>
+      <c r="C41" s="14"/>
       <c r="D41" s="7"/>
       <c r="E41" s="21">
         <v>0.35</v>
@@ -1767,9 +1761,7 @@
         <v>45</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="14">
-        <v>4</v>
-      </c>
+      <c r="D56" s="14"/>
       <c r="E56" s="21">
         <v>18.690000000000001</v>
       </c>
@@ -1788,13 +1780,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -2028,9 +2020,7 @@
       <c r="B76" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="14">
-        <v>23</v>
-      </c>
+      <c r="C76" s="14"/>
       <c r="D76" s="7"/>
       <c r="E76" s="21">
         <v>0.89</v>
@@ -2278,9 +2268,7 @@
         <v>82</v>
       </c>
       <c r="C95" s="7"/>
-      <c r="D95" s="14">
-        <v>4</v>
-      </c>
+      <c r="D95" s="14"/>
       <c r="E95" s="21">
         <v>1.25</v>
       </c>
@@ -2377,13 +2365,13 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
@@ -2481,13 +2469,13 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="26" t="s">
+      <c r="A111" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
@@ -2552,9 +2540,7 @@
       <c r="B116" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="14">
-        <v>56</v>
-      </c>
+      <c r="C116" s="14"/>
       <c r="D116" s="7"/>
       <c r="E116" s="21">
         <v>1.35</v>
@@ -2704,13 +2690,13 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="27" t="s">
+      <c r="A128" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="29"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
@@ -2776,9 +2762,7 @@
         <v>114</v>
       </c>
       <c r="C133" s="7"/>
-      <c r="D133" s="14">
-        <v>2</v>
-      </c>
+      <c r="D133" s="14"/>
       <c r="E133" s="21">
         <v>4.95</v>
       </c>
@@ -2947,9 +2931,7 @@
         <v>127</v>
       </c>
       <c r="C146" s="7"/>
-      <c r="D146" s="14">
-        <v>3</v>
-      </c>
+      <c r="D146" s="14"/>
       <c r="E146" s="21">
         <v>1.56</v>
       </c>
@@ -3027,16 +3009,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qD9/fbH1/AoFXgNgI5aWf7fS8/HysAp1DejrEK7uMacHJ15Vq7N+h3ESDBmsJGlYKJupgfMXXwTexJtL/y1cGA==" saltValue="58eXoarfYO+qu6C9vN2mfg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A103:E103"/>
     <mergeCell ref="A111:E111"/>
     <mergeCell ref="A128:E128"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
